--- a/OnBoard/output/trust/catch/Catch_Trust_56.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_56.xlsx
@@ -2212,7 +2212,7 @@
         <v>1.146</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>38.35857142857142</v>
@@ -2294,7 +2294,7 @@
         <v>0.097</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>38.35857142857142</v>
@@ -2868,7 +2868,7 @@
         <v>0.186</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I61">
         <v>38.35857142857142</v>
@@ -2991,7 +2991,7 @@
         <v>1.176</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I64">
         <v>38.35857142857142</v>
@@ -3032,7 +3032,7 @@
         <v>0.044</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I65">
         <v>38.35857142857142</v>
@@ -3114,7 +3114,7 @@
         <v>0.169</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I67">
         <v>38.35857142857142</v>
